--- a/lectures/Lecture_2/Cartoon_Example_NBC.xlsx
+++ b/lectures/Lecture_2/Cartoon_Example_NBC.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gui/Google Drive/_Teaching/Teach_BigData 2022/Big-Data-Module-1/lectures/Lecture_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gui/Google Drive/_Teaching/Teach_BigData 2023/session 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A675B9-C99E-F440-A159-8FB4766EBD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF6938-68DF-FB4A-AFEE-B4D08A74537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="33540" windowHeight="19940" tabRatio="950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="19940" tabRatio="950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.NAIVE BAYES 1 post" sheetId="5" r:id="rId1"/>
-    <sheet name="TECH DETAILS" sheetId="16" r:id="rId2"/>
+    <sheet name="getting the likelihoods" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.NAIVE BAYES 1 post'!#REF!</definedName>
@@ -154,7 +154,7 @@
     <t>Learning from Big Data</t>
   </si>
   <si>
-    <t>2022</t>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1096,14 +1096,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1584,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
